--- a/Statystyki_2018/Template/oktr.xlsx
+++ b/Statystyki_2018/Template/oktr.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD99399-BBD2-450F-A97D-5F3286F11B29}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C19D2DC-AD67-45D9-9EEB-34768B8C1E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Lp</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">INFORMACJA STATYSTYCZNA Z RUCHU SPRAW </t>
+  </si>
+  <si>
+    <t>RCz</t>
   </si>
 </sst>
 </file>
@@ -188,21 +191,15 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -255,9 +252,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -265,30 +260,8 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,29 +453,29 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -510,122 +483,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -636,11 +561,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,185 +932,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD72"/>
+      <selection activeCell="G5" sqref="G5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.77734375" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="16" t="s">
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="P2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="19"/>
+    <row r="3" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="19"/>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
     </row>
-    <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="20" t="s">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="26" t="s">
+    <row r="6" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
+      <c r="M6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="33"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O4"/>
+  <mergeCells count="18">
+    <mergeCell ref="O2:P7"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:L5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="D2:M4"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1170,12 +1128,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="A5:XFD17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1184,70 +1142,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="45"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="45"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Statystyki_2018/Template/oktr.xlsx
+++ b/Statystyki_2018/Template/oktr.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C19D2DC-AD67-45D9-9EEB-34768B8C1E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1FAD00-E668-4811-9502-590D9CDC1536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3924" yWindow="1464" windowWidth="9864" windowHeight="8556" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" iterateDelta="1E-4"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Lp</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Absencja w dniach roboczych</t>
   </si>
   <si>
-    <t xml:space="preserve">           sprawy rodzinne - nieletnich</t>
-  </si>
-  <si>
     <t>sprawy cywilne – małoletnich</t>
   </si>
   <si>
@@ -100,13 +97,19 @@
   </si>
   <si>
     <t>RCz</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sprawy rodzinne - nieletnich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,57 +132,11 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -190,6 +147,19 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -274,17 +244,150 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -292,180 +395,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -476,123 +437,123 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,7 +896,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:M5"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,142 +911,142 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="32" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="16" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="I6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="L6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
+      <c r="M6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1093,12 +1054,17 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="O2:P7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:D7"/>
@@ -1111,93 +1077,116 @@
     <mergeCell ref="D2:M4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N2:N7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="2"/>
+    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="E3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="H3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="I3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="J3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="24"/>
+      <c r="L3" s="35"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:I2"/>
+  <mergeCells count="14">
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C2:K2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -1205,6 +1194,7 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
